--- a/resources/data/30/Thiết kế hướng đối tượng 2025/sprint.xlsx
+++ b/resources/data/30/Thiết kế hướng đối tượng 2025/sprint.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="41">
   <si>
     <t xml:space="preserve">project_id</t>
   </si>
@@ -128,6 +128,21 @@
   </si>
   <si>
     <t>e18c1088-2d20-400c-81bf-6eaca20ede2e</t>
+  </si>
+  <si>
+    <t>4d8b7804-ba53-497d-8f69-3ecbe2ba6c05</t>
+  </si>
+  <si>
+    <t>fca63275-f3b3-4839-b287-a8b7474dd393</t>
+  </si>
+  <si>
+    <t>07743875-1d87-4d81-8c5c-4e909871d8f0</t>
+  </si>
+  <si>
+    <t>fb4952a3-6fbb-416b-92b3-d13f835e0de6</t>
+  </si>
+  <si>
+    <t>248f987f-a6ca-401f-af4d-776eb16310c2</t>
   </si>
 </sst>
 </file>
@@ -333,7 +348,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
@@ -2138,6 +2153,1756 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C52" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D52" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E52" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F52" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G52" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H52" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I52" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J52" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K52" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C53" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D53" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E53" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F53" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G53" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H53" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I53" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J53" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K53" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C54" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D54" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E54" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F54" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G54" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I54" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J54" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K54" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C55" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D55" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E55" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F55" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G55" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I55" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J55" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K55" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C56" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D56" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E56" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F56" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G56" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I56" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J56" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K56" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C57" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D57" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E57" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F57" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G57" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I57" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J57" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K57" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C58" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D58" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E58" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F58" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G58" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H58" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="I58" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J58" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K58" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C59" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D59" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E59" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F59" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G59" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H59" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I59" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J59" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K59" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C60" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D60" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E60" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F60" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G60" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H60" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I60" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J60" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K60" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C61" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D61" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E61" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F61" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G61" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H61" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I61" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J61" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K61" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C62" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D62" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E62" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F62" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G62" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H62" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="I62" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J62" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K62" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C63" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D63" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E63" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F63" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G63" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H63" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I63" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J63" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K63" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C64" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D64" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E64" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F64" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G64" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H64" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I64" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J64" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K64" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C65" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D65" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E65" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F65" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G65" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H65" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I65" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J65" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K65" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C66" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D66" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E66" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F66" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G66" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H66" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I66" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J66" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K66" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C67" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D67" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E67" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F67" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G67" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H67" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I67" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J67" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K67" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C68" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D68" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E68" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F68" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G68" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H68" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I68" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J68" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K68" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C69" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D69" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E69" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F69" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G69" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H69" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I69" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J69" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K69" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C70" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D70" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E70" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F70" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G70" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H70" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I70" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J70" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K70" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C71" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D71" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E71" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F71" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G71" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H71" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I71" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J71" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K71" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C72" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D72" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E72" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F72" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G72" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H72" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I72" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J72" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K72" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C73" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D73" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E73" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F73" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G73" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H73" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I73" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J73" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K73" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C74" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D74" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E74" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F74" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G74" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H74" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I74" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J74" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K74" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C75" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D75" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E75" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F75" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G75" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H75" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="I75" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J75" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K75" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C76" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D76" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E76" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F76" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G76" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H76" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I76" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J76" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K76" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C77" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D77" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E77" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F77" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G77" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H77" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I77" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J77" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K77" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C78" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D78" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E78" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F78" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G78" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H78" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I78" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J78" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K78" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C79" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D79" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E79" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F79" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G79" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H79" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I79" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J79" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K79" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C80" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D80" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E80" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F80" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G80" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H80" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I80" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J80" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K80" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C81" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D81" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E81" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F81" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G81" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H81" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I81" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J81" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K81" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C82" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D82" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E82" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F82" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G82" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H82" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I82" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J82" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K82" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C83" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D83" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E83" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F83" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G83" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H83" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I83" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="J83" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K83" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C84" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D84" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E84" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F84" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G84" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H84" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I84" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J84" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K84" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C85" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D85" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E85" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F85" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G85" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H85" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I85" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J85" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K85" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C86" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D86" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E86" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F86" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G86" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H86" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I86" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J86" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K86" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E87" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F87" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G87" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H87" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I87" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J87" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K87" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E88" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F88" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G88" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H88" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I88" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J88" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K88" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E89" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H89" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I89" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K89" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D90" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E90" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H90" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I90" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K90" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C91" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D91" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E91" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H91" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="I91" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K91" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C92" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D92" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E92" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F92" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G92" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H92" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I92" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J92" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K92" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C93" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D93" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E93" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F93" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G93" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H93" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I93" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="J93" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K93" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C94" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D94" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E94" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F94" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G94" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H94" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I94" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J94" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K94" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C95" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D95" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E95" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F95" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G95" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H95" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I95" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J95" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K95" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C96" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D96" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E96" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F96" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G96" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H96" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I96" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J96" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K96" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C97" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D97" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E97" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F97" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G97" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H97" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I97" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J97" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K97" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C98" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D98" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E98" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F98" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G98" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H98" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I98" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J98" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K98" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C99" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D99" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E99" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F99" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G99" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H99" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I99" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J99" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K99" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C100" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D100" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E100" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F100" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G100" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H100" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I100" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J100" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K100" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C101" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D101" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E101" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F101" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G101" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H101" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I101" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J101" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K101" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
